--- a/inst/extdata/zooplankton/KLFzp20.xlsx
+++ b/inst/extdata/zooplankton/KLFzp20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanamies-galonski/Code/nrp/nrp/inst/extdata/zooplankton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501929CF-E9C8-1D4C-B5C9-F01FBDDA1E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790D931-FD8E-134C-8B69-850675EAFC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="3220" windowWidth="26140" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="500" windowWidth="26140" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -582,9 +582,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Date1</t>
-  </si>
-  <si>
     <t>Date2</t>
   </si>
   <si>
@@ -844,6 +841,9 @@
   </si>
   <si>
     <t>FieldCollection</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1256,10 @@
   <dimension ref="A1:FO145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="EU62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FO1" sqref="FO1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1288,22 +1288,22 @@
         <v>182</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" t="s">
         <v>183</v>
-      </c>
-      <c r="G1" t="s">
-        <v>184</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R1" t="s">
         <v>8</v>
@@ -1444,7 +1444,7 @@
         <v>46</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BF1" t="s">
         <v>47</v>
@@ -1771,22 +1771,22 @@
         <v>154</v>
       </c>
       <c r="FJ1" t="s">
+        <v>188</v>
+      </c>
+      <c r="FK1" t="s">
         <v>189</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
+        <v>268</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>269</v>
+      </c>
+      <c r="FN1" t="s">
         <v>190</v>
       </c>
-      <c r="FL1" t="s">
-        <v>269</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>270</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>191</v>
-      </c>
       <c r="FO1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:171" x14ac:dyDescent="0.2">
@@ -1800,10 +1800,10 @@
         <v>2020</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F2" s="8">
         <v>43935</v>
@@ -1815,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -2276,13 +2276,13 @@
         <v>1</v>
       </c>
       <c r="FL2" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM2" t="s">
         <v>253</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FN2" t="s">
         <v>254</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>255</v>
       </c>
       <c r="FO2">
         <v>100</v>
@@ -2299,10 +2299,10 @@
         <v>2020</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F3" s="8">
         <v>43935</v>
@@ -2314,10 +2314,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -2775,13 +2775,13 @@
         <v>1</v>
       </c>
       <c r="FL3" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM3" t="s">
         <v>253</v>
       </c>
-      <c r="FM3" t="s">
+      <c r="FN3" t="s">
         <v>254</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>255</v>
       </c>
       <c r="FO3">
         <v>100</v>
@@ -2798,10 +2798,10 @@
         <v>2020</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F4" s="8">
         <v>43935</v>
@@ -2813,10 +2813,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -3274,13 +3274,13 @@
         <v>1</v>
       </c>
       <c r="FL4" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM4" t="s">
         <v>253</v>
       </c>
-      <c r="FM4" t="s">
+      <c r="FN4" t="s">
         <v>254</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>255</v>
       </c>
       <c r="FO4">
         <v>100</v>
@@ -3297,10 +3297,10 @@
         <v>2020</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F5" s="8">
         <v>43935</v>
@@ -3312,10 +3312,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -3773,13 +3773,13 @@
         <v>1</v>
       </c>
       <c r="FL5" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM5" t="s">
         <v>253</v>
       </c>
-      <c r="FM5" t="s">
+      <c r="FN5" t="s">
         <v>254</v>
-      </c>
-      <c r="FN5" t="s">
-        <v>255</v>
       </c>
       <c r="FO5">
         <v>100</v>
@@ -3796,10 +3796,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F6" s="8">
         <v>43936</v>
@@ -3811,10 +3811,10 @@
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -4272,13 +4272,13 @@
         <v>2</v>
       </c>
       <c r="FL6" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM6" t="s">
         <v>253</v>
       </c>
-      <c r="FM6" t="s">
+      <c r="FN6" t="s">
         <v>254</v>
-      </c>
-      <c r="FN6" t="s">
-        <v>255</v>
       </c>
       <c r="FO6">
         <v>100</v>
@@ -4295,10 +4295,10 @@
         <v>2020</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="8">
         <v>43936</v>
@@ -4310,10 +4310,10 @@
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -4771,13 +4771,13 @@
         <v>2</v>
       </c>
       <c r="FL7" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM7" t="s">
         <v>253</v>
       </c>
-      <c r="FM7" t="s">
+      <c r="FN7" t="s">
         <v>254</v>
-      </c>
-      <c r="FN7" t="s">
-        <v>255</v>
       </c>
       <c r="FO7">
         <v>100</v>
@@ -4794,10 +4794,10 @@
         <v>2020</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8" s="8">
         <v>43936</v>
@@ -4809,10 +4809,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -5270,13 +5270,13 @@
         <v>1</v>
       </c>
       <c r="FL8" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM8" t="s">
         <v>253</v>
       </c>
-      <c r="FM8" t="s">
+      <c r="FN8" t="s">
         <v>254</v>
-      </c>
-      <c r="FN8" t="s">
-        <v>255</v>
       </c>
       <c r="FO8">
         <v>100</v>
@@ -5293,10 +5293,10 @@
         <v>2020</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F9" s="8">
         <v>43936</v>
@@ -5308,10 +5308,10 @@
         <v>8</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -5769,13 +5769,13 @@
         <v>1</v>
       </c>
       <c r="FL9" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM9" t="s">
         <v>253</v>
       </c>
-      <c r="FM9" t="s">
+      <c r="FN9" t="s">
         <v>254</v>
-      </c>
-      <c r="FN9" t="s">
-        <v>255</v>
       </c>
       <c r="FO9">
         <v>100</v>
@@ -5792,10 +5792,10 @@
         <v>2020</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F10" s="8">
         <v>43935</v>
@@ -5807,10 +5807,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
@@ -6268,13 +6268,13 @@
         <v>2</v>
       </c>
       <c r="FL10" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM10" t="s">
         <v>253</v>
       </c>
-      <c r="FM10" t="s">
+      <c r="FN10" t="s">
         <v>254</v>
-      </c>
-      <c r="FN10" t="s">
-        <v>255</v>
       </c>
       <c r="FO10">
         <v>100</v>
@@ -6291,10 +6291,10 @@
         <v>2020</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F11" s="8">
         <v>43935</v>
@@ -6306,10 +6306,10 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
@@ -6767,13 +6767,13 @@
         <v>2</v>
       </c>
       <c r="FL11" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM11" t="s">
         <v>253</v>
       </c>
-      <c r="FM11" t="s">
+      <c r="FN11" t="s">
         <v>254</v>
-      </c>
-      <c r="FN11" t="s">
-        <v>255</v>
       </c>
       <c r="FO11">
         <v>100</v>
@@ -6790,10 +6790,10 @@
         <v>2020</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F12" s="8">
         <v>43935</v>
@@ -6805,10 +6805,10 @@
         <v>3</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
@@ -7266,13 +7266,13 @@
         <v>1</v>
       </c>
       <c r="FL12" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM12" t="s">
         <v>253</v>
       </c>
-      <c r="FM12" t="s">
+      <c r="FN12" t="s">
         <v>254</v>
-      </c>
-      <c r="FN12" t="s">
-        <v>255</v>
       </c>
       <c r="FO12">
         <v>100</v>
@@ -7289,10 +7289,10 @@
         <v>2020</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F13" s="8">
         <v>43935</v>
@@ -7304,10 +7304,10 @@
         <v>4</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -7765,13 +7765,13 @@
         <v>1</v>
       </c>
       <c r="FL13" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM13" t="s">
         <v>253</v>
       </c>
-      <c r="FM13" t="s">
+      <c r="FN13" t="s">
         <v>254</v>
-      </c>
-      <c r="FN13" t="s">
-        <v>255</v>
       </c>
       <c r="FO13">
         <v>100</v>
@@ -7788,10 +7788,10 @@
         <v>2020</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F14" s="8">
         <v>43936</v>
@@ -7803,10 +7803,10 @@
         <v>5</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
@@ -8264,13 +8264,13 @@
         <v>1</v>
       </c>
       <c r="FL14" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM14" t="s">
         <v>253</v>
       </c>
-      <c r="FM14" t="s">
+      <c r="FN14" t="s">
         <v>254</v>
-      </c>
-      <c r="FN14" t="s">
-        <v>255</v>
       </c>
       <c r="FO14">
         <v>100</v>
@@ -8287,10 +8287,10 @@
         <v>2020</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F15" s="8">
         <v>43936</v>
@@ -8302,10 +8302,10 @@
         <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K15" s="1">
         <v>2</v>
@@ -8763,13 +8763,13 @@
         <v>1</v>
       </c>
       <c r="FL15" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM15" t="s">
         <v>253</v>
       </c>
-      <c r="FM15" t="s">
+      <c r="FN15" t="s">
         <v>254</v>
-      </c>
-      <c r="FN15" t="s">
-        <v>255</v>
       </c>
       <c r="FO15">
         <v>100</v>
@@ -8786,10 +8786,10 @@
         <v>2020</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F16" s="8">
         <v>43936</v>
@@ -8801,10 +8801,10 @@
         <v>7</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K16" s="1">
         <v>2</v>
@@ -9262,13 +9262,13 @@
         <v>1</v>
       </c>
       <c r="FL16" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM16" t="s">
         <v>253</v>
       </c>
-      <c r="FM16" t="s">
+      <c r="FN16" t="s">
         <v>254</v>
-      </c>
-      <c r="FN16" t="s">
-        <v>255</v>
       </c>
       <c r="FO16">
         <v>100</v>
@@ -9285,10 +9285,10 @@
         <v>2020</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F17" s="8">
         <v>43936</v>
@@ -9300,10 +9300,10 @@
         <v>8</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
@@ -9761,13 +9761,13 @@
         <v>1</v>
       </c>
       <c r="FL17" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM17" t="s">
         <v>253</v>
       </c>
-      <c r="FM17" t="s">
+      <c r="FN17" t="s">
         <v>254</v>
-      </c>
-      <c r="FN17" t="s">
-        <v>255</v>
       </c>
       <c r="FO17">
         <v>100</v>
@@ -9784,10 +9784,10 @@
         <v>2020</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F18" s="9">
         <v>43935</v>
@@ -9799,10 +9799,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -10264,13 +10264,13 @@
         <v>1</v>
       </c>
       <c r="FL18" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM18" t="s">
         <v>253</v>
       </c>
-      <c r="FM18" t="s">
+      <c r="FN18" t="s">
         <v>254</v>
-      </c>
-      <c r="FN18" t="s">
-        <v>255</v>
       </c>
       <c r="FO18">
         <v>100</v>
@@ -10287,10 +10287,10 @@
         <v>2020</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F19" s="9">
         <v>43935</v>
@@ -10302,10 +10302,10 @@
         <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -10767,13 +10767,13 @@
         <v>1</v>
       </c>
       <c r="FL19" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM19" t="s">
         <v>253</v>
       </c>
-      <c r="FM19" t="s">
+      <c r="FN19" t="s">
         <v>254</v>
-      </c>
-      <c r="FN19" t="s">
-        <v>255</v>
       </c>
       <c r="FO19">
         <v>100</v>
@@ -10790,10 +10790,10 @@
         <v>2020</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F20" s="9">
         <v>43935</v>
@@ -10805,10 +10805,10 @@
         <v>3</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -11270,13 +11270,13 @@
         <v>1</v>
       </c>
       <c r="FL20" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM20" t="s">
         <v>253</v>
       </c>
-      <c r="FM20" t="s">
+      <c r="FN20" t="s">
         <v>254</v>
-      </c>
-      <c r="FN20" t="s">
-        <v>255</v>
       </c>
       <c r="FO20">
         <v>100</v>
@@ -11293,10 +11293,10 @@
         <v>2020</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F21" s="9">
         <v>43935</v>
@@ -11308,10 +11308,10 @@
         <v>4</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -11773,13 +11773,13 @@
         <v>2</v>
       </c>
       <c r="FL21" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM21" t="s">
         <v>253</v>
       </c>
-      <c r="FM21" t="s">
+      <c r="FN21" t="s">
         <v>254</v>
-      </c>
-      <c r="FN21" t="s">
-        <v>255</v>
       </c>
       <c r="FO21">
         <v>100</v>
@@ -11796,10 +11796,10 @@
         <v>2020</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F22" s="9">
         <v>43936</v>
@@ -11811,10 +11811,10 @@
         <v>5</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -12276,13 +12276,13 @@
         <v>2</v>
       </c>
       <c r="FL22" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM22" t="s">
         <v>253</v>
       </c>
-      <c r="FM22" t="s">
+      <c r="FN22" t="s">
         <v>254</v>
-      </c>
-      <c r="FN22" t="s">
-        <v>255</v>
       </c>
       <c r="FO22">
         <v>100</v>
@@ -12299,10 +12299,10 @@
         <v>2020</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F23" s="9">
         <v>43936</v>
@@ -12314,10 +12314,10 @@
         <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -12779,13 +12779,13 @@
         <v>1</v>
       </c>
       <c r="FL23" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM23" t="s">
         <v>253</v>
       </c>
-      <c r="FM23" t="s">
+      <c r="FN23" t="s">
         <v>254</v>
-      </c>
-      <c r="FN23" t="s">
-        <v>255</v>
       </c>
       <c r="FO23">
         <v>100</v>
@@ -12802,10 +12802,10 @@
         <v>2020</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F24" s="9">
         <v>43936</v>
@@ -12817,10 +12817,10 @@
         <v>7</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -13282,13 +13282,13 @@
         <v>1</v>
       </c>
       <c r="FL24" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM24" t="s">
         <v>253</v>
       </c>
-      <c r="FM24" t="s">
+      <c r="FN24" t="s">
         <v>254</v>
-      </c>
-      <c r="FN24" t="s">
-        <v>255</v>
       </c>
       <c r="FO24">
         <v>100</v>
@@ -13305,10 +13305,10 @@
         <v>2020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F25" s="9">
         <v>43936</v>
@@ -13320,10 +13320,10 @@
         <v>8</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -13785,13 +13785,13 @@
         <v>1</v>
       </c>
       <c r="FL25" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM25" t="s">
         <v>253</v>
       </c>
-      <c r="FM25" t="s">
+      <c r="FN25" t="s">
         <v>254</v>
-      </c>
-      <c r="FN25" t="s">
-        <v>255</v>
       </c>
       <c r="FO25">
         <v>100</v>
@@ -13810,7 +13810,7 @@
     </row>
     <row r="27" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" s="4">
         <v>2020</v>
@@ -13819,10 +13819,10 @@
         <v>2020</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F27" s="9">
         <v>43965</v>
@@ -13834,10 +13834,10 @@
         <v>2</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -14299,13 +14299,13 @@
         <v>2</v>
       </c>
       <c r="FL27" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM27" t="s">
         <v>253</v>
       </c>
-      <c r="FM27" t="s">
+      <c r="FN27" t="s">
         <v>254</v>
-      </c>
-      <c r="FN27" t="s">
-        <v>255</v>
       </c>
       <c r="FO27">
         <v>100</v>
@@ -14325,7 +14325,7 @@
     </row>
     <row r="29" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="4">
         <v>2020</v>
@@ -14334,10 +14334,10 @@
         <v>2020</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F29" s="9">
         <v>43965</v>
@@ -14349,10 +14349,10 @@
         <v>4</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -14814,13 +14814,13 @@
         <v>2</v>
       </c>
       <c r="FL29" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM29" t="s">
         <v>253</v>
       </c>
-      <c r="FM29" t="s">
+      <c r="FN29" t="s">
         <v>254</v>
-      </c>
-      <c r="FN29" t="s">
-        <v>255</v>
       </c>
       <c r="FO29">
         <v>100</v>
@@ -14828,7 +14828,7 @@
     </row>
     <row r="30" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="4">
         <v>2020</v>
@@ -14837,10 +14837,10 @@
         <v>2020</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F30" s="9">
         <v>43965</v>
@@ -14852,10 +14852,10 @@
         <v>5</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -15317,13 +15317,13 @@
         <v>2</v>
       </c>
       <c r="FL30" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM30" t="s">
         <v>253</v>
       </c>
-      <c r="FM30" t="s">
+      <c r="FN30" t="s">
         <v>254</v>
-      </c>
-      <c r="FN30" t="s">
-        <v>255</v>
       </c>
       <c r="FO30">
         <v>100</v>
@@ -15331,7 +15331,7 @@
     </row>
     <row r="31" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" s="4">
         <v>2020</v>
@@ -15340,10 +15340,10 @@
         <v>2020</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F31" s="9">
         <v>43965</v>
@@ -15355,10 +15355,10 @@
         <v>6</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -15820,13 +15820,13 @@
         <v>1</v>
       </c>
       <c r="FL31" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM31" t="s">
         <v>253</v>
       </c>
-      <c r="FM31" t="s">
+      <c r="FN31" t="s">
         <v>254</v>
-      </c>
-      <c r="FN31" t="s">
-        <v>255</v>
       </c>
       <c r="FO31">
         <v>100</v>
@@ -15870,7 +15870,7 @@
     </row>
     <row r="35" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B35" s="4">
         <v>2020</v>
@@ -15879,10 +15879,10 @@
         <v>2020</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F35" s="9">
         <v>43965</v>
@@ -15894,10 +15894,10 @@
         <v>2</v>
       </c>
       <c r="I35" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -16359,13 +16359,13 @@
         <v>2</v>
       </c>
       <c r="FL35" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM35" t="s">
         <v>253</v>
       </c>
-      <c r="FM35" t="s">
+      <c r="FN35" t="s">
         <v>254</v>
-      </c>
-      <c r="FN35" t="s">
-        <v>255</v>
       </c>
       <c r="FO35">
         <v>100</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="37" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="4">
         <v>2020</v>
@@ -16394,10 +16394,10 @@
         <v>2020</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F37" s="9">
         <v>43965</v>
@@ -16409,10 +16409,10 @@
         <v>4</v>
       </c>
       <c r="I37" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -16874,13 +16874,13 @@
         <v>2</v>
       </c>
       <c r="FL37" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM37" t="s">
         <v>253</v>
       </c>
-      <c r="FM37" t="s">
+      <c r="FN37" t="s">
         <v>254</v>
-      </c>
-      <c r="FN37" t="s">
-        <v>255</v>
       </c>
       <c r="FO37">
         <v>100</v>
@@ -16888,7 +16888,7 @@
     </row>
     <row r="38" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="4">
         <v>2020</v>
@@ -16897,10 +16897,10 @@
         <v>2020</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F38" s="9">
         <v>43965</v>
@@ -16912,10 +16912,10 @@
         <v>5</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -17377,13 +17377,13 @@
         <v>2</v>
       </c>
       <c r="FL38" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM38" t="s">
         <v>253</v>
       </c>
-      <c r="FM38" t="s">
+      <c r="FN38" t="s">
         <v>254</v>
-      </c>
-      <c r="FN38" t="s">
-        <v>255</v>
       </c>
       <c r="FO38">
         <v>100</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="39" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="4">
         <v>2020</v>
@@ -17400,10 +17400,10 @@
         <v>2020</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F39" s="9">
         <v>43965</v>
@@ -17415,10 +17415,10 @@
         <v>6</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -17880,13 +17880,13 @@
         <v>1</v>
       </c>
       <c r="FL39" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM39" t="s">
         <v>253</v>
       </c>
-      <c r="FM39" t="s">
+      <c r="FN39" t="s">
         <v>254</v>
-      </c>
-      <c r="FN39" t="s">
-        <v>255</v>
       </c>
       <c r="FO39">
         <v>100</v>
@@ -17939,7 +17939,7 @@
     </row>
     <row r="43" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" s="4">
         <v>2020</v>
@@ -17948,10 +17948,10 @@
         <v>2020</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F43" s="9">
         <v>43991</v>
@@ -17963,10 +17963,10 @@
         <v>2</v>
       </c>
       <c r="I43" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -18428,13 +18428,13 @@
         <v>1</v>
       </c>
       <c r="FL43" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM43" t="s">
         <v>253</v>
       </c>
-      <c r="FM43" t="s">
+      <c r="FN43" t="s">
         <v>254</v>
-      </c>
-      <c r="FN43" t="s">
-        <v>255</v>
       </c>
       <c r="FO43">
         <v>100</v>
@@ -18454,7 +18454,7 @@
     </row>
     <row r="45" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" s="4">
         <v>2020</v>
@@ -18463,10 +18463,10 @@
         <v>2020</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F45" s="9">
         <v>43991</v>
@@ -18478,10 +18478,10 @@
         <v>4</v>
       </c>
       <c r="I45" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -18943,13 +18943,13 @@
         <v>1</v>
       </c>
       <c r="FL45" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM45" t="s">
         <v>253</v>
       </c>
-      <c r="FM45" t="s">
+      <c r="FN45" t="s">
         <v>254</v>
-      </c>
-      <c r="FN45" t="s">
-        <v>255</v>
       </c>
       <c r="FO45">
         <v>100</v>
@@ -18957,7 +18957,7 @@
     </row>
     <row r="46" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B46" s="4">
         <v>2020</v>
@@ -18966,10 +18966,10 @@
         <v>2020</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F46" s="9">
         <v>43991</v>
@@ -18981,10 +18981,10 @@
         <v>5</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -19446,13 +19446,13 @@
         <v>2</v>
       </c>
       <c r="FL46" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM46" t="s">
         <v>253</v>
       </c>
-      <c r="FM46" t="s">
+      <c r="FN46" t="s">
         <v>254</v>
-      </c>
-      <c r="FN46" t="s">
-        <v>255</v>
       </c>
       <c r="FO46">
         <v>100</v>
@@ -19460,7 +19460,7 @@
     </row>
     <row r="47" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B47" s="4">
         <v>2020</v>
@@ -19469,10 +19469,10 @@
         <v>2020</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F47" s="9">
         <v>43991</v>
@@ -19484,10 +19484,10 @@
         <v>6</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -19949,13 +19949,13 @@
         <v>1</v>
       </c>
       <c r="FL47" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM47" t="s">
         <v>253</v>
       </c>
-      <c r="FM47" t="s">
+      <c r="FN47" t="s">
         <v>254</v>
-      </c>
-      <c r="FN47" t="s">
-        <v>255</v>
       </c>
       <c r="FO47">
         <v>100</v>
@@ -19999,7 +19999,7 @@
     </row>
     <row r="51" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B51" s="4">
         <v>2020</v>
@@ -20008,10 +20008,10 @@
         <v>2020</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F51" s="9">
         <v>43991</v>
@@ -20023,10 +20023,10 @@
         <v>2</v>
       </c>
       <c r="I51" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -20488,13 +20488,13 @@
         <v>2</v>
       </c>
       <c r="FL51" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM51" t="s">
         <v>253</v>
       </c>
-      <c r="FM51" t="s">
+      <c r="FN51" t="s">
         <v>254</v>
-      </c>
-      <c r="FN51" t="s">
-        <v>255</v>
       </c>
       <c r="FO51">
         <v>100</v>
@@ -20514,7 +20514,7 @@
     </row>
     <row r="53" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B53" s="4">
         <v>2020</v>
@@ -20523,10 +20523,10 @@
         <v>2020</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F53" s="9">
         <v>43991</v>
@@ -20538,10 +20538,10 @@
         <v>4</v>
       </c>
       <c r="I53" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -21003,13 +21003,13 @@
         <v>1</v>
       </c>
       <c r="FL53" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM53" t="s">
         <v>253</v>
       </c>
-      <c r="FM53" t="s">
+      <c r="FN53" t="s">
         <v>254</v>
-      </c>
-      <c r="FN53" t="s">
-        <v>255</v>
       </c>
       <c r="FO53">
         <v>100</v>
@@ -21017,7 +21017,7 @@
     </row>
     <row r="54" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" s="4">
         <v>2020</v>
@@ -21026,10 +21026,10 @@
         <v>2020</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F54" s="9">
         <v>43991</v>
@@ -21041,10 +21041,10 @@
         <v>5</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -21506,13 +21506,13 @@
         <v>1</v>
       </c>
       <c r="FL54" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM54" t="s">
         <v>253</v>
       </c>
-      <c r="FM54" t="s">
+      <c r="FN54" t="s">
         <v>254</v>
-      </c>
-      <c r="FN54" t="s">
-        <v>255</v>
       </c>
       <c r="FO54">
         <v>100</v>
@@ -21520,7 +21520,7 @@
     </row>
     <row r="55" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B55" s="4">
         <v>2020</v>
@@ -21529,10 +21529,10 @@
         <v>2020</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F55" s="9">
         <v>43991</v>
@@ -21544,10 +21544,10 @@
         <v>6</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -22009,13 +22009,13 @@
         <v>1</v>
       </c>
       <c r="FL55" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM55" t="s">
         <v>253</v>
       </c>
-      <c r="FM55" t="s">
+      <c r="FN55" t="s">
         <v>254</v>
-      </c>
-      <c r="FN55" t="s">
-        <v>255</v>
       </c>
       <c r="FO55">
         <v>100</v>
@@ -22056,7 +22056,7 @@
     </row>
     <row r="59" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" s="4">
         <v>2020</v>
@@ -22065,10 +22065,10 @@
         <v>2020</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F59" s="9">
         <v>44019</v>
@@ -22080,10 +22080,10 @@
         <v>2</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -22545,13 +22545,13 @@
         <v>1</v>
       </c>
       <c r="FL59" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM59" t="s">
         <v>253</v>
       </c>
-      <c r="FM59" t="s">
+      <c r="FN59" t="s">
         <v>254</v>
-      </c>
-      <c r="FN59" t="s">
-        <v>255</v>
       </c>
       <c r="FO59">
         <v>100</v>
@@ -22570,7 +22570,7 @@
     </row>
     <row r="61" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B61" s="4">
         <v>2020</v>
@@ -22579,10 +22579,10 @@
         <v>2020</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F61" s="9">
         <v>44019</v>
@@ -22594,10 +22594,10 @@
         <v>4</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -23059,13 +23059,13 @@
         <v>1</v>
       </c>
       <c r="FL61" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM61" t="s">
         <v>253</v>
       </c>
-      <c r="FM61" t="s">
+      <c r="FN61" t="s">
         <v>254</v>
-      </c>
-      <c r="FN61" t="s">
-        <v>255</v>
       </c>
       <c r="FO61">
         <v>100</v>
@@ -23073,7 +23073,7 @@
     </row>
     <row r="62" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B62" s="4">
         <v>2020</v>
@@ -23082,10 +23082,10 @@
         <v>2020</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F62" s="9">
         <v>44019</v>
@@ -23097,10 +23097,10 @@
         <v>5</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -23562,13 +23562,13 @@
         <v>1</v>
       </c>
       <c r="FL62" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM62" t="s">
         <v>253</v>
       </c>
-      <c r="FM62" t="s">
+      <c r="FN62" t="s">
         <v>254</v>
-      </c>
-      <c r="FN62" t="s">
-        <v>255</v>
       </c>
       <c r="FO62">
         <v>100</v>
@@ -23576,7 +23576,7 @@
     </row>
     <row r="63" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B63" s="4">
         <v>2020</v>
@@ -23585,10 +23585,10 @@
         <v>2020</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F63" s="9">
         <v>44019</v>
@@ -23600,10 +23600,10 @@
         <v>6</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -24065,13 +24065,13 @@
         <v>1</v>
       </c>
       <c r="FL63" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM63" t="s">
         <v>253</v>
       </c>
-      <c r="FM63" t="s">
+      <c r="FN63" t="s">
         <v>254</v>
-      </c>
-      <c r="FN63" t="s">
-        <v>255</v>
       </c>
       <c r="FO63">
         <v>100</v>
@@ -24112,7 +24112,7 @@
     </row>
     <row r="67" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B67" s="4">
         <v>2020</v>
@@ -24121,10 +24121,10 @@
         <v>2020</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F67" s="9">
         <v>44019</v>
@@ -24136,10 +24136,10 @@
         <v>2</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -24601,13 +24601,13 @@
         <v>1</v>
       </c>
       <c r="FL67" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM67" t="s">
         <v>253</v>
       </c>
-      <c r="FM67" t="s">
+      <c r="FN67" t="s">
         <v>254</v>
-      </c>
-      <c r="FN67" t="s">
-        <v>255</v>
       </c>
       <c r="FO67">
         <v>100</v>
@@ -24627,7 +24627,7 @@
     </row>
     <row r="69" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B69" s="4">
         <v>2020</v>
@@ -24636,10 +24636,10 @@
         <v>2020</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F69" s="9">
         <v>44019</v>
@@ -24651,10 +24651,10 @@
         <v>4</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -25116,13 +25116,13 @@
         <v>1</v>
       </c>
       <c r="FL69" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM69" t="s">
         <v>253</v>
       </c>
-      <c r="FM69" t="s">
+      <c r="FN69" t="s">
         <v>254</v>
-      </c>
-      <c r="FN69" t="s">
-        <v>255</v>
       </c>
       <c r="FO69">
         <v>100</v>
@@ -25130,7 +25130,7 @@
     </row>
     <row r="70" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B70" s="4">
         <v>2020</v>
@@ -25139,10 +25139,10 @@
         <v>2020</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F70" s="9">
         <v>44019</v>
@@ -25154,10 +25154,10 @@
         <v>5</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -25619,13 +25619,13 @@
         <v>1</v>
       </c>
       <c r="FL70" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM70" t="s">
         <v>253</v>
       </c>
-      <c r="FM70" t="s">
+      <c r="FN70" t="s">
         <v>254</v>
-      </c>
-      <c r="FN70" t="s">
-        <v>255</v>
       </c>
       <c r="FO70">
         <v>100</v>
@@ -25633,7 +25633,7 @@
     </row>
     <row r="71" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B71" s="4">
         <v>2020</v>
@@ -25642,10 +25642,10 @@
         <v>2020</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F71" s="9">
         <v>44019</v>
@@ -25657,10 +25657,10 @@
         <v>6</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -26122,13 +26122,13 @@
         <v>1</v>
       </c>
       <c r="FL71" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM71" t="s">
         <v>253</v>
       </c>
-      <c r="FM71" t="s">
+      <c r="FN71" t="s">
         <v>254</v>
-      </c>
-      <c r="FN71" t="s">
-        <v>255</v>
       </c>
       <c r="FO71">
         <v>100</v>
@@ -26181,7 +26181,7 @@
     </row>
     <row r="75" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B75" s="4">
         <v>2020</v>
@@ -26190,10 +26190,10 @@
         <v>2020</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F75" s="9">
         <v>44046</v>
@@ -26205,10 +26205,10 @@
         <v>2</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -26670,13 +26670,13 @@
         <v>1</v>
       </c>
       <c r="FL75" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM75" t="s">
         <v>253</v>
       </c>
-      <c r="FM75" t="s">
+      <c r="FN75" t="s">
         <v>254</v>
-      </c>
-      <c r="FN75" t="s">
-        <v>255</v>
       </c>
       <c r="FO75">
         <v>100</v>
@@ -26695,7 +26695,7 @@
     </row>
     <row r="77" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B77" s="4">
         <v>2020</v>
@@ -26704,10 +26704,10 @@
         <v>2020</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F77" s="9">
         <v>44046</v>
@@ -26719,10 +26719,10 @@
         <v>4</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -27184,13 +27184,13 @@
         <v>1</v>
       </c>
       <c r="FL77" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM77" t="s">
         <v>253</v>
       </c>
-      <c r="FM77" t="s">
+      <c r="FN77" t="s">
         <v>254</v>
-      </c>
-      <c r="FN77" t="s">
-        <v>255</v>
       </c>
       <c r="FO77">
         <v>100</v>
@@ -27198,7 +27198,7 @@
     </row>
     <row r="78" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B78" s="4">
         <v>2020</v>
@@ -27207,10 +27207,10 @@
         <v>2020</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F78" s="9">
         <v>44046</v>
@@ -27222,10 +27222,10 @@
         <v>5</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -27687,13 +27687,13 @@
         <v>1</v>
       </c>
       <c r="FL78" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM78" t="s">
         <v>253</v>
       </c>
-      <c r="FM78" t="s">
+      <c r="FN78" t="s">
         <v>254</v>
-      </c>
-      <c r="FN78" t="s">
-        <v>255</v>
       </c>
       <c r="FO78">
         <v>100</v>
@@ -27701,7 +27701,7 @@
     </row>
     <row r="79" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B79" s="4">
         <v>2020</v>
@@ -27710,10 +27710,10 @@
         <v>2020</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F79" s="9">
         <v>44046</v>
@@ -27725,10 +27725,10 @@
         <v>6</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -28190,13 +28190,13 @@
         <v>1</v>
       </c>
       <c r="FL79" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM79" t="s">
         <v>253</v>
       </c>
-      <c r="FM79" t="s">
+      <c r="FN79" t="s">
         <v>254</v>
-      </c>
-      <c r="FN79" t="s">
-        <v>255</v>
       </c>
       <c r="FO79">
         <v>100</v>
@@ -28237,7 +28237,7 @@
     </row>
     <row r="83" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B83" s="4">
         <v>2020</v>
@@ -28246,10 +28246,10 @@
         <v>2020</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F83" s="9">
         <v>44046</v>
@@ -28261,10 +28261,10 @@
         <v>2</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -28726,13 +28726,13 @@
         <v>1</v>
       </c>
       <c r="FL83" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM83" t="s">
         <v>253</v>
       </c>
-      <c r="FM83" t="s">
+      <c r="FN83" t="s">
         <v>254</v>
-      </c>
-      <c r="FN83" t="s">
-        <v>255</v>
       </c>
       <c r="FO83">
         <v>100</v>
@@ -28752,7 +28752,7 @@
     </row>
     <row r="85" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B85" s="4">
         <v>2020</v>
@@ -28761,10 +28761,10 @@
         <v>2020</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F85" s="9">
         <v>44046</v>
@@ -28776,10 +28776,10 @@
         <v>4</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -29241,13 +29241,13 @@
         <v>1</v>
       </c>
       <c r="FL85" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM85" t="s">
         <v>253</v>
       </c>
-      <c r="FM85" t="s">
+      <c r="FN85" t="s">
         <v>254</v>
-      </c>
-      <c r="FN85" t="s">
-        <v>255</v>
       </c>
       <c r="FO85">
         <v>100</v>
@@ -29255,7 +29255,7 @@
     </row>
     <row r="86" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B86" s="4">
         <v>2020</v>
@@ -29264,10 +29264,10 @@
         <v>2020</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F86" s="9">
         <v>44046</v>
@@ -29279,10 +29279,10 @@
         <v>5</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -29744,13 +29744,13 @@
         <v>1</v>
       </c>
       <c r="FL86" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM86" t="s">
         <v>253</v>
       </c>
-      <c r="FM86" t="s">
+      <c r="FN86" t="s">
         <v>254</v>
-      </c>
-      <c r="FN86" t="s">
-        <v>255</v>
       </c>
       <c r="FO86">
         <v>100</v>
@@ -29758,7 +29758,7 @@
     </row>
     <row r="87" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B87" s="4">
         <v>2020</v>
@@ -29767,10 +29767,10 @@
         <v>2020</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F87" s="9">
         <v>44046</v>
@@ -29782,10 +29782,10 @@
         <v>6</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -30247,13 +30247,13 @@
         <v>1</v>
       </c>
       <c r="FL87" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM87" t="s">
         <v>253</v>
       </c>
-      <c r="FM87" t="s">
+      <c r="FN87" t="s">
         <v>254</v>
-      </c>
-      <c r="FN87" t="s">
-        <v>255</v>
       </c>
       <c r="FO87">
         <v>100</v>
@@ -30306,7 +30306,7 @@
     </row>
     <row r="91" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B91" s="4">
         <v>2020</v>
@@ -30315,10 +30315,10 @@
         <v>2020</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F91" s="9">
         <v>44076</v>
@@ -30330,10 +30330,10 @@
         <v>2</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -30795,13 +30795,13 @@
         <v>1</v>
       </c>
       <c r="FL91" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM91" t="s">
         <v>253</v>
       </c>
-      <c r="FM91" t="s">
+      <c r="FN91" t="s">
         <v>254</v>
-      </c>
-      <c r="FN91" t="s">
-        <v>255</v>
       </c>
       <c r="FO91">
         <v>100</v>
@@ -30821,7 +30821,7 @@
     </row>
     <row r="93" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B93" s="4">
         <v>2020</v>
@@ -30830,10 +30830,10 @@
         <v>2020</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F93" s="9">
         <v>44076</v>
@@ -30845,10 +30845,10 @@
         <v>4</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -31310,13 +31310,13 @@
         <v>2</v>
       </c>
       <c r="FL93" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM93" t="s">
         <v>253</v>
       </c>
-      <c r="FM93" t="s">
+      <c r="FN93" t="s">
         <v>254</v>
-      </c>
-      <c r="FN93" t="s">
-        <v>255</v>
       </c>
       <c r="FO93">
         <v>100</v>
@@ -31324,7 +31324,7 @@
     </row>
     <row r="94" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B94" s="4">
         <v>2020</v>
@@ -31333,10 +31333,10 @@
         <v>2020</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F94" s="9">
         <v>44076</v>
@@ -31348,10 +31348,10 @@
         <v>5</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -31813,13 +31813,13 @@
         <v>1</v>
       </c>
       <c r="FL94" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM94" t="s">
         <v>253</v>
       </c>
-      <c r="FM94" t="s">
+      <c r="FN94" t="s">
         <v>254</v>
-      </c>
-      <c r="FN94" t="s">
-        <v>255</v>
       </c>
       <c r="FO94">
         <v>100</v>
@@ -31827,7 +31827,7 @@
     </row>
     <row r="95" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B95" s="4">
         <v>2020</v>
@@ -31836,10 +31836,10 @@
         <v>2020</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F95" s="9">
         <v>44076</v>
@@ -31851,10 +31851,10 @@
         <v>6</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -32316,13 +32316,13 @@
         <v>2</v>
       </c>
       <c r="FL95" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM95" t="s">
         <v>253</v>
       </c>
-      <c r="FM95" t="s">
+      <c r="FN95" t="s">
         <v>254</v>
-      </c>
-      <c r="FN95" t="s">
-        <v>255</v>
       </c>
       <c r="FO95">
         <v>100</v>
@@ -32366,7 +32366,7 @@
     </row>
     <row r="99" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B99" s="4">
         <v>2020</v>
@@ -32375,10 +32375,10 @@
         <v>2020</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F99" s="9">
         <v>44076</v>
@@ -32390,10 +32390,10 @@
         <v>2</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -32855,13 +32855,13 @@
         <v>2</v>
       </c>
       <c r="FL99" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM99" t="s">
         <v>253</v>
       </c>
-      <c r="FM99" t="s">
+      <c r="FN99" t="s">
         <v>254</v>
-      </c>
-      <c r="FN99" t="s">
-        <v>255</v>
       </c>
       <c r="FO99">
         <v>100</v>
@@ -32881,7 +32881,7 @@
     </row>
     <row r="101" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B101" s="4">
         <v>2020</v>
@@ -32890,10 +32890,10 @@
         <v>2020</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F101" s="9">
         <v>44076</v>
@@ -32905,10 +32905,10 @@
         <v>4</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -33370,13 +33370,13 @@
         <v>1</v>
       </c>
       <c r="FL101" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM101" t="s">
         <v>253</v>
       </c>
-      <c r="FM101" t="s">
+      <c r="FN101" t="s">
         <v>254</v>
-      </c>
-      <c r="FN101" t="s">
-        <v>255</v>
       </c>
       <c r="FO101">
         <v>100</v>
@@ -33384,7 +33384,7 @@
     </row>
     <row r="102" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B102" s="4">
         <v>2020</v>
@@ -33393,10 +33393,10 @@
         <v>2020</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F102" s="9">
         <v>44076</v>
@@ -33408,10 +33408,10 @@
         <v>5</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -33873,13 +33873,13 @@
         <v>2</v>
       </c>
       <c r="FL102" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM102" t="s">
         <v>253</v>
       </c>
-      <c r="FM102" t="s">
+      <c r="FN102" t="s">
         <v>254</v>
-      </c>
-      <c r="FN102" t="s">
-        <v>255</v>
       </c>
       <c r="FO102">
         <v>100</v>
@@ -33887,7 +33887,7 @@
     </row>
     <row r="103" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B103" s="4">
         <v>2020</v>
@@ -33896,10 +33896,10 @@
         <v>2020</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F103" s="9">
         <v>44076</v>
@@ -33911,10 +33911,10 @@
         <v>6</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -34376,13 +34376,13 @@
         <v>2</v>
       </c>
       <c r="FL103" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM103" t="s">
         <v>253</v>
       </c>
-      <c r="FM103" t="s">
+      <c r="FN103" t="s">
         <v>254</v>
-      </c>
-      <c r="FN103" t="s">
-        <v>255</v>
       </c>
       <c r="FO103">
         <v>100</v>
@@ -34423,7 +34423,7 @@
     </row>
     <row r="107" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B107" s="4">
         <v>2020</v>
@@ -34432,10 +34432,10 @@
         <v>2020</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F107" s="9">
         <v>44109</v>
@@ -34447,10 +34447,10 @@
         <v>2</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -34912,13 +34912,13 @@
         <v>2</v>
       </c>
       <c r="FL107" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM107" t="s">
         <v>253</v>
       </c>
-      <c r="FM107" t="s">
+      <c r="FN107" t="s">
         <v>254</v>
-      </c>
-      <c r="FN107" t="s">
-        <v>255</v>
       </c>
       <c r="FO107">
         <v>100</v>
@@ -34938,7 +34938,7 @@
     </row>
     <row r="109" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B109" s="4">
         <v>2020</v>
@@ -34947,10 +34947,10 @@
         <v>2020</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F109" s="9">
         <v>44109</v>
@@ -34962,10 +34962,10 @@
         <v>4</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -35427,13 +35427,13 @@
         <v>1</v>
       </c>
       <c r="FL109" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM109" t="s">
         <v>253</v>
       </c>
-      <c r="FM109" t="s">
+      <c r="FN109" t="s">
         <v>254</v>
-      </c>
-      <c r="FN109" t="s">
-        <v>255</v>
       </c>
       <c r="FO109">
         <v>100</v>
@@ -35441,7 +35441,7 @@
     </row>
     <row r="110" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B110" s="4">
         <v>2020</v>
@@ -35450,10 +35450,10 @@
         <v>2020</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F110" s="9">
         <v>44109</v>
@@ -35465,10 +35465,10 @@
         <v>5</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -35930,13 +35930,13 @@
         <v>1</v>
       </c>
       <c r="FL110" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM110" t="s">
         <v>253</v>
       </c>
-      <c r="FM110" t="s">
+      <c r="FN110" t="s">
         <v>254</v>
-      </c>
-      <c r="FN110" t="s">
-        <v>255</v>
       </c>
       <c r="FO110">
         <v>100</v>
@@ -35944,7 +35944,7 @@
     </row>
     <row r="111" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B111" s="4">
         <v>2020</v>
@@ -35953,10 +35953,10 @@
         <v>2020</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F111" s="9">
         <v>44109</v>
@@ -35968,10 +35968,10 @@
         <v>6</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -36433,13 +36433,13 @@
         <v>2</v>
       </c>
       <c r="FL111" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM111" t="s">
         <v>253</v>
       </c>
-      <c r="FM111" t="s">
+      <c r="FN111" t="s">
         <v>254</v>
-      </c>
-      <c r="FN111" t="s">
-        <v>255</v>
       </c>
       <c r="FO111">
         <v>100</v>
@@ -36483,7 +36483,7 @@
     </row>
     <row r="115" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B115" s="4">
         <v>2020</v>
@@ -36492,10 +36492,10 @@
         <v>2020</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F115" s="9">
         <v>44109</v>
@@ -36507,10 +36507,10 @@
         <v>2</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K115">
         <v>2</v>
@@ -36972,13 +36972,13 @@
         <v>1</v>
       </c>
       <c r="FL115" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM115" t="s">
         <v>253</v>
       </c>
-      <c r="FM115" t="s">
+      <c r="FN115" t="s">
         <v>254</v>
-      </c>
-      <c r="FN115" t="s">
-        <v>255</v>
       </c>
       <c r="FO115">
         <v>100</v>
@@ -36998,7 +36998,7 @@
     </row>
     <row r="117" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B117" s="4">
         <v>2020</v>
@@ -37007,10 +37007,10 @@
         <v>2020</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F117" s="9">
         <v>44109</v>
@@ -37022,10 +37022,10 @@
         <v>4</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -37487,13 +37487,13 @@
         <v>1</v>
       </c>
       <c r="FL117" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM117" t="s">
         <v>253</v>
       </c>
-      <c r="FM117" t="s">
+      <c r="FN117" t="s">
         <v>254</v>
-      </c>
-      <c r="FN117" t="s">
-        <v>255</v>
       </c>
       <c r="FO117">
         <v>100</v>
@@ -37501,7 +37501,7 @@
     </row>
     <row r="118" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B118" s="4">
         <v>2020</v>
@@ -37510,10 +37510,10 @@
         <v>2020</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F118" s="9">
         <v>44109</v>
@@ -37525,10 +37525,10 @@
         <v>5</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K118">
         <v>2</v>
@@ -37990,13 +37990,13 @@
         <v>1</v>
       </c>
       <c r="FL118" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM118" t="s">
         <v>253</v>
       </c>
-      <c r="FM118" t="s">
+      <c r="FN118" t="s">
         <v>254</v>
-      </c>
-      <c r="FN118" t="s">
-        <v>255</v>
       </c>
       <c r="FO118">
         <v>100</v>
@@ -38004,7 +38004,7 @@
     </row>
     <row r="119" spans="1:171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B119" s="4">
         <v>2020</v>
@@ -38013,10 +38013,10 @@
         <v>2020</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F119" s="9">
         <v>44109</v>
@@ -38028,10 +38028,10 @@
         <v>6</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K119">
         <v>2</v>
@@ -38493,13 +38493,13 @@
         <v>1</v>
       </c>
       <c r="FL119" t="s">
+        <v>252</v>
+      </c>
+      <c r="FM119" t="s">
         <v>253</v>
       </c>
-      <c r="FM119" t="s">
+      <c r="FN119" t="s">
         <v>254</v>
-      </c>
-      <c r="FN119" t="s">
-        <v>255</v>
       </c>
       <c r="FO119">
         <v>100</v>
